--- a/Inputs/William_russell/info.xlsx
+++ b/Inputs/William_russell/info.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">frequencyFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">william</t>
+    <t xml:space="preserve">william_russell</t>
   </si>
   <si>
     <t xml:space="preserve">NE_Dubai/</t>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">William Russell (Elite Individual)</t>
   </si>
   <si>
-    <t xml:space="preserve">benefits</t>
+    <t xml:space="preserve">rates</t>
   </si>
 </sst>
 </file>
@@ -270,10 +270,10 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.95"/>
@@ -349,7 +349,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
